--- a/AlgoritmosOrdenamiento/Libro1.xlsx
+++ b/AlgoritmosOrdenamiento/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Angel Josue Loayza Huarachi_UCSP\Semestre 5 - 2022 - CCOMP5\ADA ♥♥♥\Algoritmos\AlgoritmosOrdenamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D85E71-BC45-4994-B25C-302FFA4AC91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B66D7F-18F0-4ECA-A7FF-3F6069965081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8787BE03-EEF4-490F-871C-DE89A8461F90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n=1000</t>
   </si>
@@ -44,13 +44,16 @@
     <t>n=100</t>
   </si>
   <si>
-    <t>Booble sort</t>
-  </si>
-  <si>
     <t>Insert sort</t>
   </si>
   <si>
     <t>Select sort</t>
+  </si>
+  <si>
+    <t>Cocktail Sort</t>
+  </si>
+  <si>
+    <t>bubble sort</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Booble sort</c:v>
+                  <c:v>bubble sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -417,6 +420,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1229-40CD-8334-66761B154238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocktail Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$4:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$4:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6F3-459F-907B-A5D9002F8E50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1501,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5184A-69FF-432C-9857-EC9D06138B82}">
-  <dimension ref="J3:M6"/>
+  <dimension ref="J3:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,18 +1594,21 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="10:14" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -1539,8 +1621,11 @@
       <c r="M4">
         <v>1.2E-2</v>
       </c>
+      <c r="N4">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
-    <row r="5" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>0</v>
       </c>
@@ -1553,8 +1638,11 @@
       <c r="M5">
         <v>0.158</v>
       </c>
+      <c r="N5">
+        <v>7.0300000000000001E-2</v>
+      </c>
     </row>
-    <row r="6" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>1</v>
       </c>
@@ -1566,6 +1654,9 @@
       </c>
       <c r="M6">
         <v>0.30499999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/AlgoritmosOrdenamiento/Libro1.xlsx
+++ b/AlgoritmosOrdenamiento/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Angel Josue Loayza Huarachi_UCSP\Semestre 5 - 2022 - CCOMP5\ADA ♥♥♥\Algoritmos\AlgoritmosOrdenamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B66D7F-18F0-4ECA-A7FF-3F6069965081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E906C-E24C-42D8-893C-AFEF22044BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8787BE03-EEF4-490F-871C-DE89A8461F90}"/>
   </bookViews>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>n=1000</t>
-  </si>
-  <si>
-    <t>n=10000</t>
   </si>
   <si>
     <t>n=100</t>
@@ -54,6 +51,18 @@
   </si>
   <si>
     <t>bubble sort</t>
+  </si>
+  <si>
+    <t>n=2000</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
                   <c:v>n=1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>n=10000</c:v>
+                  <c:v>n=2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -257,13 +266,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32700000000000001</c:v>
+                  <c:v>0.41799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,7 +328,7 @@
                   <c:v>n=1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>n=10000</c:v>
+                  <c:v>n=2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -331,13 +340,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38200000000000001</c:v>
+                  <c:v>0.45400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +402,7 @@
                   <c:v>n=1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>n=10000</c:v>
+                  <c:v>n=2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -405,13 +414,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,7 +478,7 @@
                   <c:v>n=1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>n=10000</c:v>
+                  <c:v>n=2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,13 +490,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0300000000000001E-2</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,6 +505,235 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6F3-459F-907B-A5D9002F8E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$4:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$4:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2362-4F0A-AAEE-E5502BB25FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$4:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$4:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2362-4F0A-AAEE-E5502BB25FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$4:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Q$4:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2362-4F0A-AAEE-E5502BB25FB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1253,9 +1491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>519430</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1580,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5184A-69FF-432C-9857-EC9D06138B82}">
-  <dimension ref="J3:N6"/>
+  <dimension ref="J3:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,69 +1832,105 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="10:17" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
-        <v>5</v>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.0999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="L4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
         <v>1.4E-2</v>
       </c>
-      <c r="M4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N4">
-        <v>8.9999999999999993E-3</v>
+      <c r="P4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q4">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.13500000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="L5">
-        <v>0.15</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M5">
-        <v>0.158</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>7.0300000000000001E-2</v>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.222</v>
+      </c>
+      <c r="P5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>0.32700000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="L6">
-        <v>0.38200000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="M6">
-        <v>0.30499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.22</v>
+        <v>0.6</v>
+      </c>
+      <c r="O6">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.49099999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AlgoritmosOrdenamiento/Libro1.xlsx
+++ b/AlgoritmosOrdenamiento/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Angel Josue Loayza Huarachi_UCSP\Semestre 5 - 2022 - CCOMP5\ADA ♥♥♥\Algoritmos\AlgoritmosOrdenamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E906C-E24C-42D8-893C-AFEF22044BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FE36E4-68FF-49EE-817E-22CD3161FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8787BE03-EEF4-490F-871C-DE89A8461F90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>n=1000</t>
   </si>
@@ -947,6 +947,2592 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bubble sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$29:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6788-42D1-8C3E-98B4AB34F3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="175154767"/>
+        <c:axId val="175148111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="175154767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175148111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175148111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175154767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$46:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$46:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CFD-4C94-B621-1C24B580B654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="65041823"/>
+        <c:axId val="65036831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65041823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65036831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65036831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65041823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$13:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$13:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9130-495D-AA44-92F5EAC2F918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="70501855"/>
+        <c:axId val="70504351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70501855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70504351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70504351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70501855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocktail Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$R$14:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$14:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9322-49A1-8A11-543D7D4EE39A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2045968623"/>
+        <c:axId val="256720015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2045968623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256720015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256720015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045968623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$R$31:$R$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$31:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94A8-4682-8DB8-E86BCA487CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="256709615"/>
+        <c:axId val="256713775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256709615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256713775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256713775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256709615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$37:$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$37:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C63D-401D-B6B5-4D8F4299DA03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="70503519"/>
+        <c:axId val="70514335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70503519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70514335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70514335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70503519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$S$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$R$50:$R$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>n=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n=1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$50:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E9D-433A-9383-90C6AE8256BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="62017327"/>
+        <c:axId val="62018159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62017327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62018159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62018159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62017327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -984,6 +3570,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1480,18 +4346,3490 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>815340</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -1513,6 +7851,258 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD777B0-DE2C-4B55-9F73-874E7C2C9FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D208D7E-2F6D-406E-9BCA-19CE57165E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B995EBEF-B363-4101-BB02-32C3F8064502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3167784-FB9C-44B4-93A9-4057E9E939A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>49307</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EFB8E1-47BC-49C9-8584-39ABE8A36C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632012</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E86F94-3EB4-47B7-A2D6-FB60793297CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85165</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56512BB-ACC5-4604-A71C-7C66DA4C0579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1818,10 +8408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5184A-69FF-432C-9857-EC9D06138B82}">
-  <dimension ref="J3:Q6"/>
+  <dimension ref="B3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,7 +8422,7 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="10:19" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +8445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +8471,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +8497,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>6</v>
       </c>
@@ -1933,6 +8523,199 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
+    <row r="12" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.02</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R50" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
